--- a/apps/features/backlog/desktop/windows/ad_blocking_ server/ad_blocking_server.xlsx
+++ b/apps/features/backlog/desktop/windows/ad_blocking_ server/ad_blocking_server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\ad_blocking_ server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33258226-C0FF-41CB-953A-9A628B7485AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E0F302-A852-4114-950C-995028722CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -424,6 +424,87 @@
     <t>check ad blocking customization
 ( means allowing specific websites or domains to display ads even when ad-blocking settings are turned on)</t>
   </si>
+  <si>
+    <t>TC_SYM_ABS_022</t>
+  </si>
+  <si>
+    <t>check the DNS leak</t>
+  </si>
+  <si>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page. and connect to any server
+6. goto browser , check DNS leak on ip-score website</t>
+  </si>
+  <si>
+    <t>should not be leaked</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_023</t>
+  </si>
+  <si>
+    <t>check if the server is adding to favourite server list or not</t>
+  </si>
+  <si>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page, add any ad block server to favourite 
+6. check if the server is adding to favourite server list or not</t>
+  </si>
+  <si>
+    <t>should be added</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_024</t>
+  </si>
+  <si>
+    <t>check if removing from favourite server list , also remove the fav icon from ad blocking server list and vice versa</t>
+  </si>
+  <si>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list
+6. check if removing from favourite server list , also remove the fav icon from ad blocking server list and vice versa</t>
+  </si>
+  <si>
+    <t>should work properly</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_025</t>
+  </si>
+  <si>
+    <t>check if the dropdown of the ad blocking server is working properly or not</t>
+  </si>
+  <si>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page
+6. check if the dropdown of the ad blocking server is working 
+properly or not</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_026</t>
+  </si>
+  <si>
+    <t>check click on emoji/text/arrow sign, dropdown is happening or not</t>
+  </si>
+  <si>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page , check ad blocking server,
+6. click on emoji/text/arrow sign
+7. dropdown should be happened</t>
+  </si>
 </sst>
 </file>
 
@@ -599,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -628,6 +709,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,10 +733,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,7 +1465,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G24" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G29" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1596,8 +1683,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1614,15 +1701,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1644,13 +1731,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1678,7 +1765,7 @@
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1687,10 +1774,10 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1"/>
@@ -1720,19 +1807,19 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="3"/>
@@ -1762,19 +1849,19 @@
       <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3"/>
@@ -2087,7 +2174,7 @@
       <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -2125,7 +2212,7 @@
       <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2163,7 +2250,7 @@
       <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2201,7 +2288,7 @@
       <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2239,7 +2326,7 @@
       <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2277,7 +2364,7 @@
       <c r="C18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2315,7 +2402,7 @@
       <c r="C19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="11" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2353,7 +2440,7 @@
       <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="11" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2391,7 +2478,7 @@
       <c r="C21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2429,7 +2516,7 @@
       <c r="C22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2467,7 +2554,7 @@
       <c r="C23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -2505,7 +2592,7 @@
       <c r="C24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -2533,14 +2620,26 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+    <row r="25" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2561,14 +2660,26 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+    <row r="26" spans="1:26" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="18"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2589,14 +2700,26 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+    <row r="27" spans="1:26" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="18"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2617,14 +2740,26 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+    <row r="28" spans="1:26" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="18"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2645,14 +2780,26 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+    <row r="29" spans="1:26" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="18"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
